--- a/banco_dados_funcionarios.xlsx
+++ b/banco_dados_funcionarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Casella.DESKTOP-T4HRM18.000\Documents\Stone_Pagamentos\Distribuicao_dos_lucros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7534C564-DA6C-44BC-AE77-C9C911880B00}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D53A12-6A7E-4617-9D3A-85B45E2B53EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9576" xr2:uid="{109C6316-A06F-4D36-A562-DA16BC281EC0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>matricula</t>
   </si>
@@ -48,9 +48,6 @@
     <t>salario_bruto</t>
   </si>
   <si>
-    <t>data admissao</t>
-  </si>
-  <si>
     <t>Victor Wilson</t>
   </si>
   <si>
@@ -76,14 +73,28 @@
   </si>
   <si>
     <t>Líder de Relacionamento</t>
+  </si>
+  <si>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>mes</t>
+  </si>
+  <si>
+    <t>dia</t>
+  </si>
+  <si>
+    <t>Bonus Excel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -118,17 +129,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+  <cellStyles count="3">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,23 +458,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11EC149-EE18-4FDF-B1F4-246874F836A6}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
     <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.44140625" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,69 +494,104 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="F1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>9968</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>12696.2</v>
       </c>
-      <c r="F2" s="1">
-        <v>40913</v>
-      </c>
+      <c r="F2" s="5">
+        <v>2012</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4"/>
+      <c r="J2">
+        <f>(((E2*3)+(E2*1))/(E2*5))*12</f>
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>4468</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>1396.52</v>
       </c>
-      <c r="F3" s="1">
-        <v>42009</v>
-      </c>
+      <c r="F3" s="5">
+        <v>2012</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8174</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>3899.74</v>
       </c>
-      <c r="F4" s="1">
-        <v>42162</v>
-      </c>
+      <c r="F4" s="5">
+        <v>2012</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/banco_dados_funcionarios.xlsx
+++ b/banco_dados_funcionarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Casella.DESKTOP-T4HRM18.000\Documents\Stone_Pagamentos\Distribuicao_dos_lucros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D53A12-6A7E-4617-9D3A-85B45E2B53EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F70BD1-AA67-41E9-86A7-AF4A94E29BA6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9576" xr2:uid="{109C6316-A06F-4D36-A562-DA16BC281EC0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>matricula</t>
   </si>
@@ -84,17 +84,123 @@
     <t>dia</t>
   </si>
   <si>
-    <t>Bonus Excel</t>
+    <t>Charlotte Romero</t>
+  </si>
+  <si>
+    <t>Financeiro</t>
+  </si>
+  <si>
+    <t>Contador Pleno</t>
+  </si>
+  <si>
+    <t>Danielle Blanchard</t>
+  </si>
+  <si>
+    <t>Auxiliar Administrativo</t>
+  </si>
+  <si>
+    <t>Daugherty Kramer</t>
+  </si>
+  <si>
+    <t>Serviços Gerais</t>
+  </si>
+  <si>
+    <t>Atendente de Almoxarifado</t>
+  </si>
+  <si>
+    <t>Ella Hale</t>
+  </si>
+  <si>
+    <t>Jillian Odonnell</t>
+  </si>
+  <si>
+    <t>Contador Júnior</t>
+  </si>
+  <si>
+    <t>Morton Battle</t>
+  </si>
+  <si>
+    <t>Economista Pleno</t>
+  </si>
+  <si>
+    <t>Dorthy Lee</t>
+  </si>
+  <si>
+    <t>Estagiário</t>
+  </si>
+  <si>
+    <t>Petersen Colema</t>
+  </si>
+  <si>
+    <t>Avila Kan</t>
+  </si>
+  <si>
+    <t>Hess Sloan</t>
+  </si>
+  <si>
+    <t>Atendente</t>
+  </si>
+  <si>
+    <t>Ashlee Wood</t>
+  </si>
+  <si>
+    <t>Abraham Jones</t>
+  </si>
+  <si>
+    <t>Diretor Tecnologia</t>
+  </si>
+  <si>
+    <t>Beulah Long</t>
+  </si>
+  <si>
+    <t>Tecnologia</t>
+  </si>
+  <si>
+    <t>Jovem Aprendiz</t>
+  </si>
+  <si>
+    <t>Maricela Martin</t>
+  </si>
+  <si>
+    <t>Copeiro</t>
+  </si>
+  <si>
+    <t>Stephenson Stone</t>
+  </si>
+  <si>
+    <t>Analista de Finanças</t>
+  </si>
+  <si>
+    <t>Taylor Mccarthy</t>
+  </si>
+  <si>
+    <t>Auxiliar de Ouvidoria</t>
+  </si>
+  <si>
+    <t>Cross Perkins</t>
+  </si>
+  <si>
+    <t>Líder de Ouvidoria</t>
+  </si>
+  <si>
+    <t>Wong Austin</t>
+  </si>
+  <si>
+    <t>Economista Júnior</t>
+  </si>
+  <si>
+    <t>Francesca Hewitt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -134,14 +240,15 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -458,19 +565,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11EC149-EE18-4FDF-B1F4-246874F836A6}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.77734375" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
@@ -491,20 +598,17 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -523,20 +627,16 @@
       <c r="E2" s="1">
         <v>12696.2</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>2012</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="5">
         <v>5</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2">
-        <f>(((E2*3)+(E2*1))/(E2*5))*12</f>
-        <v>9.6000000000000014</v>
-      </c>
+      <c r="I2" s="3"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -555,13 +655,13 @@
       <c r="E3" s="1">
         <v>1396.52</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>2012</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="5">
         <v>6</v>
       </c>
       <c r="K3" s="2"/>
@@ -582,16 +682,529 @@
       <c r="E4" s="1">
         <v>3899.74</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>2012</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="5">
         <v>7</v>
       </c>
       <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>7463</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1">
+        <v>3199.82</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2016</v>
+      </c>
+      <c r="G5" s="5">
+        <v>8</v>
+      </c>
+      <c r="H5" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5253</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2215.04</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2016</v>
+      </c>
+      <c r="G6" s="5">
+        <v>8</v>
+      </c>
+      <c r="H6" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4867</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2768.28</v>
+      </c>
+      <c r="F7" s="6">
+        <v>2015</v>
+      </c>
+      <c r="G7" s="7">
+        <v>10</v>
+      </c>
+      <c r="H7" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1843</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2120.08</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2015</v>
+      </c>
+      <c r="G8" s="7">
+        <v>6</v>
+      </c>
+      <c r="H8" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6806</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2571.73</v>
+      </c>
+      <c r="F9" s="6">
+        <v>2014</v>
+      </c>
+      <c r="G9" s="7">
+        <v>7</v>
+      </c>
+      <c r="H9" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7961</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2101.6799999999998</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2016</v>
+      </c>
+      <c r="G10" s="7">
+        <v>4</v>
+      </c>
+      <c r="H10" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>5961</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2671.26</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2016</v>
+      </c>
+      <c r="G11" s="7">
+        <v>9</v>
+      </c>
+      <c r="H11" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>7293</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="1">
+        <v>4457.08</v>
+      </c>
+      <c r="F12" s="6">
+        <v>2017</v>
+      </c>
+      <c r="G12" s="7">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1491.45</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2015</v>
+      </c>
+      <c r="G13" s="7">
+        <v>3</v>
+      </c>
+      <c r="H13" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>273</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1426.13</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2016</v>
+      </c>
+      <c r="G14" s="7">
+        <v>9</v>
+      </c>
+      <c r="H14" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>7361</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2166.25</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2016</v>
+      </c>
+      <c r="G15" s="7">
+        <v>9</v>
+      </c>
+      <c r="H15" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4237</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2266.46</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2014</v>
+      </c>
+      <c r="G16" s="7">
+        <v>10</v>
+      </c>
+      <c r="H16" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>538</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2330.19</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2014</v>
+      </c>
+      <c r="G17" s="7">
+        <v>7</v>
+      </c>
+      <c r="H17" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>14319</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="1">
+        <v>18053.25</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2016</v>
+      </c>
+      <c r="G18" s="7">
+        <v>7</v>
+      </c>
+      <c r="H18" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>6335</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1019.88</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2014</v>
+      </c>
+      <c r="G19" s="7">
+        <v>8</v>
+      </c>
+      <c r="H19" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>7676</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1591.69</v>
+      </c>
+      <c r="F20" s="6">
+        <v>2018</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2949</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5694.14</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2014</v>
+      </c>
+      <c r="G21" s="7">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>8601</v>
+      </c>
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1800.16</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2017</v>
+      </c>
+      <c r="G22" s="7">
+        <v>3</v>
+      </c>
+      <c r="H22" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>6877</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="1">
+        <v>3371.47</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2016</v>
+      </c>
+      <c r="G23" s="7">
+        <v>12</v>
+      </c>
+      <c r="H23" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H29" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/banco_dados_funcionarios.xlsx
+++ b/banco_dados_funcionarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Casella.DESKTOP-T4HRM18.000\Documents\Stone_Pagamentos\Distribuicao_dos_lucros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10F70BD1-AA67-41E9-86A7-AF4A94E29BA6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9108CFE3-AC6F-4DF2-8684-D781E050428C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9576" xr2:uid="{109C6316-A06F-4D36-A562-DA16BC281EC0}"/>
   </bookViews>
